--- a/PDRB/SIG das SIGAS.xlsx
+++ b/PDRB/SIG das SIGAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evento\Desktop\PDRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evento\Documents\GitHub\PDRBRA\PDRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,44 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
-  <si>
-    <t>Concepção do projeto</t>
-  </si>
-  <si>
-    <t>Entrega do projeto</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Elicitação dos requisitos</t>
-  </si>
-  <si>
-    <t>Elaboração do TAP</t>
-  </si>
-  <si>
-    <t>Elaboração dos protótipos</t>
-  </si>
-  <si>
-    <t>Levantamento de dados</t>
-  </si>
-  <si>
-    <t>Testes e correção</t>
-  </si>
-  <si>
-    <t>Layout (desenv.)</t>
-  </si>
-  <si>
-    <t>Lógica da aplicação  (desenv.)</t>
-  </si>
-  <si>
-    <t>Base de dados (desenv.)</t>
-  </si>
-  <si>
-    <t>Elaboração do cronograma</t>
-  </si>
-  <si>
     <t>PROJETO - DICIONÁRIO REGIONAL BRASILEIRO</t>
   </si>
   <si>
@@ -94,6 +61,117 @@
   </si>
   <si>
     <t>Codigo Fonte</t>
+  </si>
+  <si>
+    <t>CLACA</t>
+  </si>
+  <si>
+    <t>CLASSE CANDIDAT</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>DIAGRAMA DE ESCOPO DO PROJETO</t>
+  </si>
+  <si>
+    <t>DESCONT</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO CONTEXTUAL</t>
+  </si>
+  <si>
+    <t>DICEAP</t>
+  </si>
+  <si>
+    <t>DICIONARIO DO EAP</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>DR-CR</t>
+  </si>
+  <si>
+    <t>DR-EAP</t>
+  </si>
+  <si>
+    <t>DR-ER</t>
+  </si>
+  <si>
+    <t>DR-EUC</t>
+  </si>
+  <si>
+    <t>DSCU</t>
+  </si>
+  <si>
+    <t>DIAGRAMA DE CASO E USO</t>
+  </si>
+  <si>
+    <t>DSEG</t>
+  </si>
+  <si>
+    <t>DIAGRAMA DE SEGUENCIA E CASO DE USO</t>
+  </si>
+  <si>
+    <t>ESTPRO</t>
+  </si>
+  <si>
+    <t>GERENCIAMENTO DAS PARTES INTERESSADAS</t>
+  </si>
+  <si>
+    <t>GPINT</t>
+  </si>
+  <si>
+    <t>JUSTPRO</t>
+  </si>
+  <si>
+    <t>JUSTIFICATIVA DO PROJETO</t>
+  </si>
+  <si>
+    <t>ESTUDO SOBRE O PROJETO</t>
+  </si>
+  <si>
+    <t>LISTA DE OBJETOS</t>
+  </si>
+  <si>
+    <t>LOBJ</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>MODELOS DE DOCUMENTOS</t>
+  </si>
+  <si>
+    <t>MATRIZ DE RASTREABILIDADE DOS REQUISITOS</t>
+  </si>
+  <si>
+    <t>MRR</t>
+  </si>
+  <si>
+    <t>PLANO DO PROJETO</t>
+  </si>
+  <si>
+    <t>PLAP</t>
+  </si>
+  <si>
+    <t>PLBL</t>
+  </si>
+  <si>
+    <t>PLANEJAMENTO DA BASELINE</t>
+  </si>
+  <si>
+    <t>PROTOTIPAÇÃO DAS TELAS</t>
+  </si>
+  <si>
+    <t>PTLAS</t>
+  </si>
+  <si>
+    <t>TAP</t>
+  </si>
+  <si>
+    <t>TERMO DE ABERTURA DE PROJETO</t>
   </si>
 </sst>
 </file>
@@ -177,7 +255,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -195,13 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -213,10 +285,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,29 +616,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FP48"/>
+  <dimension ref="A1:FP72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+      <selection activeCell="B31" sqref="B31:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="2" customWidth="1"/>
     <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="3" customWidth="1"/>
     <col min="6" max="20" width="4" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:172" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -575,11 +656,11 @@
       <c r="T1"/>
     </row>
     <row r="2" spans="1:172" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -597,19 +678,19 @@
       <c r="T2"/>
     </row>
     <row r="3" spans="1:172" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -779,11 +860,11 @@
       <c r="FP3" s="5"/>
     </row>
     <row r="4" spans="1:172" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -953,15 +1034,15 @@
       <c r="FP4" s="5"/>
     </row>
     <row r="5" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1131,11 +1212,11 @@
       <c r="FP5" s="6"/>
     </row>
     <row r="6" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1305,15 +1386,15 @@
       <c r="FP6" s="6"/>
     </row>
     <row r="7" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1483,11 +1564,11 @@
       <c r="FP7" s="6"/>
     </row>
     <row r="8" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1657,15 +1738,15 @@
       <c r="FP8" s="6"/>
     </row>
     <row r="9" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1835,11 +1916,11 @@
       <c r="FP9" s="6"/>
     </row>
     <row r="10" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2009,13 +2090,15 @@
       <c r="FP10" s="6"/>
     </row>
     <row r="11" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2185,11 +2268,11 @@
       <c r="FP11" s="6"/>
     </row>
     <row r="12" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -2359,13 +2442,15 @@
       <c r="FP12" s="6"/>
     </row>
     <row r="13" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -2535,100 +2620,104 @@
       <c r="FP13" s="6"/>
     </row>
     <row r="14" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10"/>
+      <c r="A23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10"/>
+      <c r="A25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="8"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -2646,11 +2735,11 @@
       <c r="T25"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -2668,233 +2757,481 @@
       <c r="T26"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
+      <c r="A31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="10"/>
+      <c r="A37" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="10"/>
+      <c r="A39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="10"/>
+      <c r="A41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="10"/>
+      <c r="A43" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="10"/>
+      <c r="A45" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="10"/>
+      <c r="A47" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="116">
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
+  <mergeCells count="176">
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
@@ -2919,48 +3256,56 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
